--- a/result.xlsx
+++ b/result.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,66 +20,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+  <si>
+    <t>sentiment-PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.519572063604288 0.5047601413582851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0289928313540157 0.028771276958986746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12541278905267025 0.11852712367137125</t>
+  </si>
+  <si>
+    <t>0.13602237609896586 0.13659216228024537</t>
+  </si>
+  <si>
+    <t>SSWE_h(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSWE_r(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSWE_u(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simlex-999(pearsonr, spearmanr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.542532298026846 0.5296450386863069</t>
+  </si>
   <si>
     <t>fastText-crawl-300d-2M.vec</t>
-  </si>
-  <si>
-    <t>[0.28633193 0.11676843 0.09353362 0.07186453 0.06552153 0.05351857</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.0471763  0.04025202 0.03875825 0.03124195]</t>
-  </si>
-  <si>
-    <t>sentiment-PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wordsim-999(pearsonr, spearmanr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.519572063604288 0.5047601413582851</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0289928313540157 0.028771276958986746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.68817972 0.09736926 0.04696623 0.02594634 0.02426833 0.02200869</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.01670254 0.01552719 0.01180113 0.01062583]</t>
-  </si>
-  <si>
-    <t>[0.63171184 0.11711445 0.06208693 0.03295661 0.02583572 0.02417193</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.01876501 0.01722527 0.01438883 0.01111564]</t>
-  </si>
-  <si>
-    <t>0.12541278905267025 0.11852712367137125</t>
-  </si>
-  <si>
-    <t>0.13602237609896586 0.13659216228024537</t>
-  </si>
-  <si>
-    <t>[0.8134059  0.05878878 0.03315523 0.02614427 0.01813707 0.00998843</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00779787 0.00627137 0.00506332 0.00470372]</t>
-  </si>
-  <si>
-    <t>SSWE_h(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSWE_r(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSWE_u(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7329544531192245 0.7780425795462853</t>
+  </si>
+  <si>
+    <t>capital-common-countries.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 83.20% (421/506)</t>
+  </si>
+  <si>
+    <t>capital-world.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 72.66% (2105/2897)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 72.59% (2103/2897)</t>
+  </si>
+  <si>
+    <t>currency.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 38.70% (291/752)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 38.16% (287/752)</t>
+  </si>
+  <si>
+    <t>city-in-state.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 77.10% (1448/1878)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 77.16% (1449/1878)</t>
+  </si>
+  <si>
+    <t>family.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 100.00% (342/342)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 99.71% (341/342)</t>
+  </si>
+  <si>
+    <t>gram1-adjective-to-adverb.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 38.61% (383/992)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 36.59% (363/992)</t>
+  </si>
+  <si>
+    <t>gram2-opposite.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 60.22% (489/812)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 61.08% (496/812)</t>
+  </si>
+  <si>
+    <t>gram3-comparative.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 88.97% (242/272)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 88.60% (241/272)</t>
+  </si>
+  <si>
+    <t>gram4-superlative.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 100.00% (56/56)</t>
+  </si>
+  <si>
+    <t>gram5-present-participle.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 93.00% (558/600)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 92.33% (554/600)</t>
+  </si>
+  <si>
+    <t>gram6-nationality-adjective.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 81.04% (1111/1371)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 81.25% (1114/1371)</t>
+  </si>
+  <si>
+    <t>gram7-past-tense.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 81.37% (249/306)</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 82.68% (253/306)</t>
+  </si>
+  <si>
+    <t>gram8-plural.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 86.67% (26/30)</t>
+  </si>
+  <si>
+    <t>gram9-plural-verbs.txt:</t>
+  </si>
+  <si>
+    <t>ACCURACY TOP1: 83.33% (5/6)</t>
+  </si>
+  <si>
+    <t>Questions seen/total: 55.36% (10820/19544)</t>
+  </si>
+  <si>
+    <t>Semantic accuracy: 72.27%  (4607/6375)</t>
+  </si>
+  <si>
+    <t>Semantic accuracy: 72.17%  (4601/6375)</t>
+  </si>
+  <si>
+    <t>Syntactic accuracy: 70.17%  (3119/4445)</t>
+  </si>
+  <si>
+    <t>Syntactic accuracy: 69.92%  (3108/4445)</t>
+  </si>
+  <si>
+    <t>Total accuracy: 71.40%  (7726/10820)</t>
+  </si>
+  <si>
+    <t>Total accuracy: 71.25%  (7709/10820)</t>
+  </si>
+  <si>
+    <t>0.44542718 0.426030748740061</t>
+  </si>
+  <si>
+    <t>[0.28633193 0.11676843 0.09353362 0.07186453 0.06552153 0.05351857 0.0471763  0.04025202 0.03875825 0.03124195]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.63171184 0.11711445 0.06208693 0.03295661 0.02583572 0.02417193 0.01876501 0.01722527 0.01438883 0.01111564]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.8134059  0.05878878 0.03315523 0.02614427 0.01813707 0.00998843 0.00779787 0.00627137 0.00506332 0.00470372]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.68817972 0.09736926 0.04696623 0.02594634 0.02426833 0.02200869 0.01670254 0.01552719 0.01180113 0.01062583]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wordsim-353(pearsonr, spearmanr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simverb-3500(pearsonr, spearmanr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.47189963 0.45417403494167746</t>
+  </si>
+  <si>
+    <t>0.7434401839819833 0.7890802278376934(329 pairs)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,8 +279,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,77 +564,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="F3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -482,4 +658,281 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="161">
   <si>
     <t>sentiment-PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>refined(fastText-crawl-300d-2M.vec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.7329544531192245 0.7780425795462853</t>
   </si>
   <si>
@@ -236,6 +232,318 @@
   </si>
   <si>
     <t>0.7434401839819833 0.7890802278376934(329 pairs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uninitialized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88824</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.89145</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88928</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88881</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88806</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88617</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.89159</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.89013</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88923</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88862</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87783</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87528</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87090</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86496</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85648</t>
+  </si>
+  <si>
+    <t>[9.81018647e-01 3.73049339e-03 2.58249704e-03 2.02516868e-03 1.71721463e-03 1.53982221e-03 1.10333936e-03 1.01415971e-03 9.39710079e-04 7.73181727e-04]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9.80994502e-01 3.79639757e-03 2.64117513e-03 1.96254755e-03 1.67840415e-03 1.42386835e-03 1.22334055e-03 1.08031151e-03 9.01083799e-04 7.56224383e-04]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9.77677176e-01 4.32087786e-03 3.08373609e-03 2.27059871e-03 2.05801266e-03 1.68511554e-03 1.51791769e-03 1.22494831e-03 1.09076375e-03 8.99867544e-04]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.97557538 0.00482124 0.00337731 0.00254126 0.00212653 0.0018449 0.00158303 0.00140326 0.00117894 0.00103693]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.95982726 0.00549378 0.00418051 0.00336122 0.00309767 0.00297926 0.00288233 0.00267714 0.00243482 0.00232979]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.33125758 0.10600425 0.09367872 0.07406831 0.06397185 0.0520931 0.04526988 0.03851463 0.03439786 0.02865428]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined-0.5(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined-1(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.63324688 0.06800119 0.0512919  0.03989474 0.03486251 0.02732049 0.02294156 0.02102122 0.01753699 0.0152996 ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5803278662411915 0.5624573109372005</t>
+  </si>
+  <si>
+    <t>0.6697694149005481 0.7219674037656256</t>
+  </si>
+  <si>
+    <t>0.4874574 0.4709933868254024</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87905</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88051</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87335</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86359</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.84634</t>
+  </si>
+  <si>
+    <t>0.4114029 0.40504640050913465</t>
+  </si>
+  <si>
+    <t>refined-2(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4794776263509767 0.5959216354738961</t>
+  </si>
+  <si>
+    <t>0.5231526445551636 0.5179180701441788</t>
+  </si>
+  <si>
+    <t>[0.84272089 0.04268731 0.02443686 0.01467129 0.01306658 0.01001867 0.0082577  0.00794666 0.0061729  0.00591205]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87731</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88122</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87208</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86571</t>
+  </si>
+  <si>
+    <t>turned-fastText(uni)-PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni+bi)-PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni+bi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85633</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88301</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86604</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85671</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88004</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88009</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87260</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86303</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85346</t>
+  </si>
+  <si>
+    <t>[0.93947503 0.0081044  0.00609567 0.00551012 0.00465883 0.00435809 0.00421016 0.00384194 0.00373248 0.00367363]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin-turned-direction-cos-similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07169475779578882 0.03468883710994062</t>
+  </si>
+  <si>
+    <t>0.14839559848837813 0.03170925768719414</t>
+  </si>
+  <si>
+    <t>-0.0064295908 0.015997422089924416</t>
+  </si>
+  <si>
+    <t>0.14272554 0.2389147845663654</t>
+  </si>
+  <si>
+    <t>turned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-simverb-3500(pearsonr, spearmanr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.09097934 0.15294853039493914</t>
+  </si>
+  <si>
+    <t>0.06831802 0.11345149720268535</t>
+  </si>
+  <si>
+    <t>0.05351679 0.10442101776850239</t>
+  </si>
+  <si>
+    <t>0.046578996 0.09153517404941953</t>
+  </si>
+  <si>
+    <t>0.1050845 0.22717192050367918</t>
+  </si>
+  <si>
+    <t>0.06466678 0.13723161204190484</t>
+  </si>
+  <si>
+    <t>0.051679168 0.09507209357890362</t>
+  </si>
+  <si>
+    <t>0.042385694 0.07779562858103338</t>
+  </si>
+  <si>
+    <t>0.03615947 0.07119210178459079</t>
+  </si>
+  <si>
+    <t>0.08402299 0.1953402854347915</t>
+  </si>
+  <si>
+    <t>0.057150103 0.12833032981110482</t>
+  </si>
+  <si>
+    <t>0.04430161 0.08961070371878252</t>
+  </si>
+  <si>
+    <t>0.03500251 0.07308527572265293</t>
+  </si>
+  <si>
+    <t>0.029759355 0.06404104649123916</t>
+  </si>
+  <si>
+    <t>0.07601048 0.18668794411416637</t>
+  </si>
+  <si>
+    <t>0.04642006 0.10772699252768406</t>
+  </si>
+  <si>
+    <t>0.037412073 0.08222485038623456</t>
+  </si>
+  <si>
+    <t>0.030562798 0.06222972227835756</t>
+  </si>
+  <si>
+    <t>0.026346223 0.050594595033116134</t>
+  </si>
+  <si>
+    <t>refined-10(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22272689530722914 0.32437971678856026</t>
+  </si>
+  <si>
+    <t>0.3626833732152155 0.3588403103341623</t>
+  </si>
+  <si>
+    <t>0.27372065 0.2730191664797783</t>
+  </si>
+  <si>
+    <t>[9.60466751e-01 2.74610246e-02 7.56854295e-03 7.43787387e-04 6.22361132e-04 5.13677467e-04 4.40087597e-04 4.17873651e-04 3.51613534e-04 2.69511977e-04]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87943</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88018</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87250</t>
+  </si>
+  <si>
+    <t>[0.97588256 0.00488805 0.00327049 0.00245558 0.00210812 0.00181584 0.00158151 0.00134564 0.00114076 0.00097626]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机选择一个方向，并自行优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会摒弃诱导方向，并逐渐收敛至随机选择的新方向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,48 +872,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="4" max="6" width="40.375" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -616,41 +948,437 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="J10" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>0.88866999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>158</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31">
+        <v>0.217713009409014</v>
+      </c>
+      <c r="C31">
+        <v>0.10461068986171999</v>
+      </c>
+      <c r="D31">
+        <v>-0.26375255214578103</v>
+      </c>
+      <c r="E31">
+        <v>0.38729708855902201</v>
+      </c>
+      <c r="F31">
+        <v>0.15569407809799099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>-0.20782714416994899</v>
+      </c>
+      <c r="C32">
+        <v>-9.1106896709121102E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.24638322823030101</v>
+      </c>
+      <c r="E32">
+        <v>0.36919756785503</v>
+      </c>
+      <c r="F32">
+        <v>0.14496865137284501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>-0.206482390481981</v>
+      </c>
+      <c r="C33">
+        <v>-9.0292869081644397E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.24769072704178</v>
+      </c>
+      <c r="E33">
+        <v>-0.37015823868810499</v>
+      </c>
+      <c r="F33">
+        <v>-0.143938637620904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>-0.20758430284377299</v>
+      </c>
+      <c r="C34">
+        <v>9.3580831942713799E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.25477327512868297</v>
+      </c>
+      <c r="E34">
+        <v>0.398434294553354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.20801400777731599</v>
+      </c>
+      <c r="C35">
+        <v>-9.6388142395732596E-2</v>
+      </c>
+      <c r="D35">
+        <v>-0.25475321591118399</v>
+      </c>
+      <c r="E35">
+        <v>0.40645602168640499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -677,258 +1405,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
   <si>
     <t>sentiment-PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,15 +526,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test accuracy: 0.87943</t>
-  </si>
-  <si>
     <t>Test accuracy: 0.88018</t>
   </si>
   <si>
-    <t>Test accuracy: 0.87250</t>
-  </si>
-  <si>
     <t>[0.97588256 0.00488805 0.00327049 0.00245558 0.00210812 0.00181584 0.00158151 0.00134564 0.00114076 0.00097626]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,8 +537,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会摒弃诱导方向，并逐渐收敛至随机选择的新方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>初始化与否对结果基本无影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88061</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87641</t>
+  </si>
+  <si>
+    <t>refined-20(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9.81734241e-01 1.40975627e-02 3.01732784e-03 1.90421184e-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.58411093e-04 1.31437808e-04 1.13063820e-04 1.07061028e-04 9.06072057e-05 6.84664855e-05]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87439</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86567</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85855</t>
   </si>
 </sst>
 </file>
@@ -872,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,12 +903,12 @@
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
-    <col min="4" max="6" width="40.375" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="4" max="7" width="40.375" customWidth="1"/>
+    <col min="8" max="8" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -904,20 +924,23 @@
       <c r="F1" t="s">
         <v>150</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -937,7 +960,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -956,17 +979,17 @@
       <c r="F3" t="s">
         <v>152</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -986,36 +1009,36 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>62</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1034,17 +1057,25 @@
       <c r="F10" t="s">
         <v>154</v>
       </c>
-      <c r="I10" t="s">
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
         <v>59</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1054,11 +1085,11 @@
       <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.88866999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>73</v>
       </c>
@@ -1066,7 +1097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>74</v>
       </c>
@@ -1074,7 +1105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>75</v>
       </c>
@@ -1082,7 +1113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>76</v>
       </c>
@@ -1090,7 +1121,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1107,13 +1143,16 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>113</v>
       </c>
@@ -1127,13 +1166,16 @@
         <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>115</v>
       </c>
@@ -1146,14 +1188,14 @@
       <c r="E21" t="s">
         <v>106</v>
       </c>
-      <c r="F21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>116</v>
       </c>
@@ -1166,11 +1208,14 @@
       <c r="E22" t="s">
         <v>107</v>
       </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>117</v>
       </c>
@@ -1183,11 +1228,14 @@
       <c r="E23" t="s">
         <v>112</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -1197,11 +1245,11 @@
       <c r="C25" t="s">
         <v>82</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1212,21 +1260,21 @@
         <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -1243,10 +1291,13 @@
         <v>0.38729708855902201</v>
       </c>
       <c r="F31">
-        <v>0.15569407809799099</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>-0.492624995588681</v>
+      </c>
+      <c r="G31">
+        <v>-0.50195767182505602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>-0.20782714416994899</v>
       </c>
@@ -1260,10 +1311,13 @@
         <v>0.36919756785503</v>
       </c>
       <c r="F32">
-        <v>0.14496865137284501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.46686488611166099</v>
+      </c>
+      <c r="G32">
+        <v>0.47431267647700298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>-0.206482390481981</v>
       </c>
@@ -1276,11 +1330,11 @@
       <c r="E33">
         <v>-0.37015823868810499</v>
       </c>
-      <c r="F33">
-        <v>-0.143938637620904</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>0.47911675949471899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>-0.20758430284377299</v>
       </c>
@@ -1293,8 +1347,11 @@
       <c r="E34">
         <v>0.398434294553354</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>-0.48641435950406198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0.20801400777731599</v>
       </c>
@@ -1307,8 +1364,11 @@
       <c r="E35">
         <v>0.40645602168640499</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>-0.49437183936504397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -1325,7 +1385,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>146</v>
       </c>
@@ -1339,7 +1399,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>147</v>
       </c>

--- a/result.xlsx
+++ b/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
   <si>
     <t>sentiment-PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,16 +56,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.542532298026846 0.5296450386863069</t>
-  </si>
-  <si>
     <t>fastText-crawl-300d-2M.vec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.7329544531192245 0.7780425795462853</t>
-  </si>
-  <si>
     <t>capital-common-countries.txt:</t>
   </si>
   <si>
@@ -228,9 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.47189963 0.45417403494167746</t>
-  </si>
-  <si>
     <t>0.7434401839819833 0.7890802278376934(329 pairs)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,21 +260,6 @@
     <t>Test accuracy: 0.88862</t>
   </si>
   <si>
-    <t>Test accuracy: 0.87783</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87528</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87090</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86496</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.85648</t>
-  </si>
-  <si>
     <t>[9.81018647e-01 3.73049339e-03 2.58249704e-03 2.02516868e-03 1.71721463e-03 1.53982221e-03 1.10333936e-03 1.01415971e-03 9.39710079e-04 7.73181727e-04]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,18 +272,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.97557538 0.00482124 0.00337731 0.00254126 0.00212653 0.0018449 0.00158303 0.00140326 0.00117894 0.00103693]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0.95982726 0.00549378 0.00418051 0.00336122 0.00309767 0.00297926 0.00288233 0.00267714 0.00243482 0.00232979]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.33125758 0.10600425 0.09367872 0.07406831 0.06397185 0.0520931 0.04526988 0.03851463 0.03439786 0.02865428]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>refined-0.5(fastText-crawl-300d-2M.vec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,255 +284,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0.63324688 0.06800119 0.0512919  0.03989474 0.03486251 0.02732049 0.02294156 0.02102122 0.01753699 0.0152996 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5803278662411915 0.5624573109372005</t>
-  </si>
-  <si>
-    <t>0.6697694149005481 0.7219674037656256</t>
+    <t>refined-2(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni)-PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni+bi)-PCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni+bi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-fastText(uni)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88301</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86604</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85671</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88004</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88009</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87260</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86303</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85346</t>
+  </si>
+  <si>
+    <t>[0.93947503 0.0081044  0.00609567 0.00551012 0.00465883 0.00435809 0.00421016 0.00384194 0.00373248 0.00367363]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin-turned-direction-cos-similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07169475779578882 0.03468883710994062</t>
+  </si>
+  <si>
+    <t>0.14839559848837813 0.03170925768719414</t>
+  </si>
+  <si>
+    <t>-0.0064295908 0.015997422089924416</t>
+  </si>
+  <si>
+    <t>turned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turned-simverb-3500(pearsonr, spearmanr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07601048 0.18668794411416637</t>
+  </si>
+  <si>
+    <t>0.04642006 0.10772699252768406</t>
+  </si>
+  <si>
+    <t>0.037412073 0.08222485038623456</t>
+  </si>
+  <si>
+    <t>0.030562798 0.06222972227835756</t>
+  </si>
+  <si>
+    <t>0.026346223 0.050594595033116134</t>
+  </si>
+  <si>
+    <t>refined-10(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88018</t>
+  </si>
+  <si>
+    <t>随机选择一个方向，并自行优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化与否对结果基本无影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refined-20(fastText-crawl-300d-2M.vec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7329544555154982 0.7780425795462853</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5425322988577485 0.5296450386863069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4718997 0.45417403494167746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6697693784688428 0.7219674037656256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5803278684948889 0.5624573109372005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.4874574 0.4709933868254024</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87905</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88051</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87335</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86359</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.84634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4794776244972771 0.5959216354738961</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5231526418708651 0.5179180701441788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.4114029 0.40504640050913465</t>
-  </si>
-  <si>
-    <t>refined-2(fastText-crawl-300d-2M.vec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4794776263509767 0.5959216354738961</t>
-  </si>
-  <si>
-    <t>0.5231526445551636 0.5179180701441788</t>
-  </si>
-  <si>
-    <t>[0.84272089 0.04268731 0.02443686 0.01467129 0.01306658 0.01001867 0.0082577  0.00794666 0.0061729  0.00591205]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87731</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88122</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87208</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86571</t>
-  </si>
-  <si>
-    <t>turned-fastText(uni)-PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turned-fastText(uni+bi)-PCA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turned-fastText(uni+bi)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turned-fastText(uni)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.85633</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88301</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86604</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.85671</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88004</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88009</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87260</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86303</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.85346</t>
-  </si>
-  <si>
-    <t>[0.93947503 0.0081044  0.00609567 0.00551012 0.00465883 0.00435809 0.00421016 0.00384194 0.00373248 0.00367363]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin-turned-direction-cos-similarity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07169475779578882 0.03468883710994062</t>
-  </si>
-  <si>
-    <t>0.14839559848837813 0.03170925768719414</t>
-  </si>
-  <si>
-    <t>-0.0064295908 0.015997422089924416</t>
-  </si>
-  <si>
-    <t>0.14272554 0.2389147845663654</t>
-  </si>
-  <si>
-    <t>turned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>turned-simverb-3500(pearsonr, spearmanr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.09097934 0.15294853039493914</t>
-  </si>
-  <si>
-    <t>0.06831802 0.11345149720268535</t>
-  </si>
-  <si>
-    <t>0.05351679 0.10442101776850239</t>
-  </si>
-  <si>
-    <t>0.046578996 0.09153517404941953</t>
-  </si>
-  <si>
-    <t>0.1050845 0.22717192050367918</t>
-  </si>
-  <si>
-    <t>0.06466678 0.13723161204190484</t>
-  </si>
-  <si>
-    <t>0.051679168 0.09507209357890362</t>
-  </si>
-  <si>
-    <t>0.042385694 0.07779562858103338</t>
-  </si>
-  <si>
-    <t>0.03615947 0.07119210178459079</t>
-  </si>
-  <si>
-    <t>0.08402299 0.1953402854347915</t>
-  </si>
-  <si>
-    <t>0.057150103 0.12833032981110482</t>
-  </si>
-  <si>
-    <t>0.04430161 0.08961070371878252</t>
-  </si>
-  <si>
-    <t>0.03500251 0.07308527572265293</t>
-  </si>
-  <si>
-    <t>0.029759355 0.06404104649123916</t>
-  </si>
-  <si>
-    <t>0.07601048 0.18668794411416637</t>
-  </si>
-  <si>
-    <t>0.04642006 0.10772699252768406</t>
-  </si>
-  <si>
-    <t>0.037412073 0.08222485038623456</t>
-  </si>
-  <si>
-    <t>0.030562798 0.06222972227835756</t>
-  </si>
-  <si>
-    <t>0.026346223 0.050594595033116134</t>
-  </si>
-  <si>
-    <t>refined-10(fastText-crawl-300d-2M.vec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.22272689530722914 0.32437971678856026</t>
-  </si>
-  <si>
-    <t>0.3626833732152155 0.3588403103341623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22272689473097781 0.32437971678856026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3626833737763222 0.3588403103341623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.27372065 0.2730191664797783</t>
-  </si>
-  <si>
-    <t>[9.60466751e-01 2.74610246e-02 7.56854295e-03 7.43787387e-04 6.22361132e-04 5.13677467e-04 4.40087597e-04 4.17873651e-04 3.51613534e-04 2.69511977e-04]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88018</t>
-  </si>
-  <si>
-    <t>[0.97588256 0.00488805 0.00327049 0.00245558 0.00210812 0.00181584 0.00158151 0.00134564 0.00114076 0.00097626]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机选择一个方向，并自行优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化与否对结果基本无影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.88061</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87641</t>
-  </si>
-  <si>
-    <t>refined-20(fastText-crawl-300d-2M.vec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9.81734241e-01 1.40975627e-02 3.01732784e-03 1.90421184e-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.58411093e-04 1.31437808e-04 1.13063820e-04 1.07061028e-04 9.06072057e-05 6.84664855e-05]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test accuracy: 0.87439</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.86567</t>
-  </si>
-  <si>
-    <t>Test accuracy: 0.85855</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19231226788849826 0.2853898210769805</t>
+  </si>
+  <si>
+    <t>0.3269476447391422 0.32555162370480634</t>
+  </si>
+  <si>
+    <t>0.24578428 0.2595273745396023</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.84262</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87340</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88344</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87632</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85238</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87137</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88207</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87500</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88183</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85035</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86850</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87952</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88297</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88193</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.84785</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87321</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88216</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88339</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87349</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85586</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87128</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.87882</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88264</t>
+  </si>
+  <si>
+    <t>Test accuracy: 0.88306</t>
+  </si>
+  <si>
+    <t>inited_refined_20_unigram/model_2</t>
+  </si>
+  <si>
+    <t>dire_naive 0.66096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_mean 0.50844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_PCA 0.63725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_randomPCA 0.63806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_LDA 0.51339</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_P&amp;N 0.67656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inited_refined_20_unigram/model_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_naive 0.76664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_mean 0.51909</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_PCA 0.76678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_randomPCA 0.76716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_LDA 0.55680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_P&amp;N 0.76664</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_vertical_to_P 0.55713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dire_vertical_to_mean 0.80590 减去一个无关紧要的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -892,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -910,25 +930,25 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -942,22 +962,25 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -968,16 +991,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -991,35 +1017,38 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1027,15 +1056,15 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1043,47 +1072,27 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12">
         <v>0.88866999999999996</v>
@@ -1091,354 +1100,309 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I18" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>138</v>
+      </c>
+      <c r="F21" t="s">
+        <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>0.217713009409014</v>
-      </c>
-      <c r="C31">
-        <v>0.10461068986171999</v>
-      </c>
-      <c r="D31">
-        <v>-0.26375255214578103</v>
-      </c>
-      <c r="E31">
-        <v>0.38729708855902201</v>
-      </c>
-      <c r="F31">
-        <v>-0.492624995588681</v>
-      </c>
-      <c r="G31">
-        <v>-0.50195767182505602</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>-0.20782714416994899</v>
       </c>
-      <c r="C32">
-        <v>-9.1106896709121102E-2</v>
-      </c>
-      <c r="D32">
-        <v>0.24638322823030101</v>
-      </c>
-      <c r="E32">
-        <v>0.36919756785503</v>
-      </c>
-      <c r="F32">
-        <v>0.46686488611166099</v>
-      </c>
-      <c r="G32">
-        <v>0.47431267647700298</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>-0.206482390481981</v>
       </c>
-      <c r="C33">
-        <v>-9.0292869081644397E-2</v>
-      </c>
-      <c r="D33">
-        <v>0.24769072704178</v>
-      </c>
-      <c r="E33">
-        <v>-0.37015823868810499</v>
-      </c>
-      <c r="G33">
-        <v>0.47911675949471899</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>-0.20758430284377299</v>
       </c>
-      <c r="C34">
-        <v>9.3580831942713799E-2</v>
-      </c>
-      <c r="D34">
-        <v>0.25477327512868297</v>
-      </c>
-      <c r="E34">
-        <v>0.398434294553354</v>
-      </c>
-      <c r="G34">
-        <v>-0.48641435950406198</v>
+      <c r="G34" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>0.20801400777731599</v>
       </c>
-      <c r="C35">
-        <v>-9.6388142395732596E-2</v>
-      </c>
-      <c r="D35">
-        <v>-0.25475321591118399</v>
-      </c>
-      <c r="E35">
-        <v>0.40645602168640499</v>
-      </c>
-      <c r="G35">
-        <v>-0.49437183936504397</v>
+      <c r="G35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1465,258 +1429,258 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="175">
   <si>
     <t>sentiment-PCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,38 @@
   </si>
   <si>
     <t>dire_vertical_to_mean 0.80590 减去一个无关紧要的方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86619</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.85671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.86011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.84974</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test accuracy: 0.84238</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,6 +1435,63 @@
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G53" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="G87" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>172</v>
+      </c>
+      <c r="G89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
